--- a/Dummy Data/Dim_Branch.xlsx
+++ b/Dummy Data/Dim_Branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COLLEGE\BITS PILANI\SS 2nd Semester\DW\DW Project\Loan-Data-Warehouse\Dummy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6B6FE-1164-42EB-9B8C-C97E5927F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D76660-A04E-43DD-AB62-FC17AE5DF503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>303010</v>
@@ -1395,12 +1395,12 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>30</v>
+        <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(30,100)</f>
+        <v>94</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>488</v>
+        <f t="shared" ref="F2:F33" ca="1" si="1">RANDBETWEEN(100,1000)</f>
+        <v>875</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>303026</v>
@@ -1429,12 +1429,12 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
       </c>
       <c r="F3">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>525</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>686</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>303183</v>
@@ -1463,12 +1463,12 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="F4">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>347</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>623</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>303190</v>
@@ -1497,12 +1497,12 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <f ca="1">RANDBETWEEN(30,100)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>98</v>
       </c>
       <c r="F5">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>974</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>615</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>303215</v>
@@ -1531,12 +1531,12 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
       </c>
       <c r="F6">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>685</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>597</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>303597</v>
@@ -1565,12 +1565,12 @@
         <v>142</v>
       </c>
       <c r="E7">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
       <c r="F7">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>560</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>751</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>303027</v>
@@ -1599,12 +1599,12 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="F8">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>365</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>303037</v>
@@ -1633,12 +1633,12 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="F9">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>548</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>303096</v>
@@ -1667,12 +1667,12 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="F10">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>131</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>683</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>303105</v>
@@ -1701,12 +1701,12 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="F11">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>563</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>962</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>303112</v>
@@ -1735,12 +1735,12 @@
         <v>50</v>
       </c>
       <c r="E12">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
       </c>
       <c r="F12">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>199</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>782</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>303015</v>
@@ -1769,12 +1769,12 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="F13">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>793</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>941</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>303031</v>
@@ -1803,12 +1803,12 @@
         <v>34</v>
       </c>
       <c r="E14">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
       </c>
       <c r="F14">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>172</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>749</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>303231</v>
@@ -1837,12 +1837,12 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
       </c>
       <c r="F15">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>833</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>792</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>303237</v>
@@ -1871,12 +1871,12 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="F16">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>981</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>514</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>303244</v>
@@ -1905,12 +1905,12 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="F17">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>335</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>735</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>303020</v>
@@ -1939,12 +1939,12 @@
         <v>40</v>
       </c>
       <c r="E18">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="F18">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>444</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>325</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>303129</v>
@@ -1973,12 +1973,12 @@
         <v>40</v>
       </c>
       <c r="E19">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
       </c>
       <c r="F19">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>432</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>365</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>303155</v>
@@ -2007,12 +2007,12 @@
         <v>40</v>
       </c>
       <c r="E20">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="F20">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>421</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>620</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>303184</v>
@@ -2041,12 +2041,12 @@
         <v>40</v>
       </c>
       <c r="E21">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
       </c>
       <c r="F21">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>215</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>536</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>303186</v>
@@ -2075,12 +2075,12 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
       </c>
       <c r="F22">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>179</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>355</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>303336</v>
@@ -2109,12 +2109,12 @@
         <v>121</v>
       </c>
       <c r="E23">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
       </c>
       <c r="F23">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>944</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>872</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>303269</v>
@@ -2143,12 +2143,12 @@
         <v>110</v>
       </c>
       <c r="E24">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="F24">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>704</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>303280</v>
@@ -2177,12 +2177,12 @@
         <v>110</v>
       </c>
       <c r="E25">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
       </c>
       <c r="F25">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>297</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>370</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>303369</v>
@@ -2211,12 +2211,12 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="F26">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>927</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>358</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>673</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>303673</v>
@@ -2245,12 +2245,12 @@
         <v>110</v>
       </c>
       <c r="E27">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="F27">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>357</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>917</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>837</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>303837</v>
@@ -2279,12 +2279,12 @@
         <v>110</v>
       </c>
       <c r="E28">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
       <c r="F28">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>824</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>460</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>303013</v>
@@ -2313,12 +2313,12 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="F29">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>163</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>558</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>303048</v>
@@ -2347,12 +2347,12 @@
         <v>30</v>
       </c>
       <c r="E30">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
       </c>
       <c r="F30">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>696</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>481</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>303245</v>
@@ -2381,12 +2381,12 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="F31">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>503</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>303254</v>
@@ -2415,12 +2415,12 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
       </c>
       <c r="F32">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>482</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>402</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>303264</v>
@@ -2449,12 +2449,12 @@
         <v>30</v>
       </c>
       <c r="E33">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
       <c r="F33">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>484</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>303281</v>
@@ -2483,12 +2483,12 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>73</v>
+        <f t="shared" ref="E34:E65" ca="1" si="2">RANDBETWEEN(30,100)</f>
+        <v>84</v>
       </c>
       <c r="F34">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>749</v>
+        <f t="shared" ref="F34:F65" ca="1" si="3">RANDBETWEEN(100,1000)</f>
+        <v>569</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>303290</v>
@@ -2517,12 +2517,12 @@
         <v>30</v>
       </c>
       <c r="E35">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
       </c>
       <c r="F35">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>444</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>628</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>303296</v>
@@ -2551,12 +2551,12 @@
         <v>30</v>
       </c>
       <c r="E36">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="F36">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>738</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>612</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>303362</v>
@@ -2585,12 +2585,12 @@
         <v>30</v>
       </c>
       <c r="E37">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
       </c>
       <c r="F37">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>587</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>872</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>303376</v>
@@ -2619,12 +2619,12 @@
         <v>30</v>
       </c>
       <c r="E38">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
       </c>
       <c r="F38">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>486</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>724</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>303042</v>
@@ -2653,12 +2653,12 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
       </c>
       <c r="F39">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>741</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>203</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>589</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>303589</v>
@@ -2687,12 +2687,12 @@
         <v>60</v>
       </c>
       <c r="E40">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
       </c>
       <c r="F40">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>624</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>464</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>303009</v>
@@ -2721,12 +2721,12 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
       </c>
       <c r="F41">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>218</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>303029</v>
@@ -2755,12 +2755,12 @@
         <v>24</v>
       </c>
       <c r="E42">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
       </c>
       <c r="F42">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>653</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>724</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>471</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>303471</v>
@@ -2789,12 +2789,12 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
       </c>
       <c r="F43">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>402</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>648</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>303529</v>
@@ -2823,12 +2823,12 @@
         <v>24</v>
       </c>
       <c r="E44">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
       </c>
       <c r="F44">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>133</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>658</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>303658</v>
@@ -2857,12 +2857,12 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
       </c>
       <c r="F45">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>333</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>413</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>303024</v>
@@ -2891,12 +2891,12 @@
         <v>47</v>
       </c>
       <c r="E46">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
       </c>
       <c r="F46">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>558</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>670</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>303028</v>
@@ -2925,12 +2925,12 @@
         <v>47</v>
       </c>
       <c r="E47">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
       </c>
       <c r="F47">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>593</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>303138</v>
@@ -2959,12 +2959,12 @@
         <v>47</v>
       </c>
       <c r="E48">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
       </c>
       <c r="F48">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>489</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>303156</v>
@@ -2993,12 +2993,12 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
       </c>
       <c r="F49">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>379</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>167</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>303277</v>
@@ -3027,12 +3027,12 @@
         <v>47</v>
       </c>
       <c r="E50">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
       </c>
       <c r="F50">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>193</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>247</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>303292</v>
@@ -3061,12 +3061,12 @@
         <v>47</v>
       </c>
       <c r="E51">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
       </c>
       <c r="F51">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>394</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>310</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>303293</v>
@@ -3095,12 +3095,12 @@
         <v>47</v>
       </c>
       <c r="E52">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
       </c>
       <c r="F52">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>763</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>653</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>325</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>303324</v>
@@ -3129,12 +3129,12 @@
         <v>47</v>
       </c>
       <c r="E53">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
       </c>
       <c r="F53">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>241</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>839</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>303377</v>
@@ -3163,12 +3163,12 @@
         <v>47</v>
       </c>
       <c r="E54">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
       </c>
       <c r="F54">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>159</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>413</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>303413</v>
@@ -3197,12 +3197,12 @@
         <v>47</v>
       </c>
       <c r="E55">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
       </c>
       <c r="F55">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>512</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>659</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>303003</v>
@@ -3231,12 +3231,12 @@
         <v>19</v>
       </c>
       <c r="E56">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
       </c>
       <c r="F56">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>191</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>873</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>303005</v>
@@ -3265,12 +3265,12 @@
         <v>19</v>
       </c>
       <c r="E57">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
       </c>
       <c r="F57">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>824</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>378</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>303059</v>
@@ -3299,12 +3299,12 @@
         <v>19</v>
       </c>
       <c r="E58">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="F58">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>133</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>866</v>
       </c>
       <c r="G58" t="s">
         <v>9</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>408</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>303408</v>
@@ -3333,12 +3333,12 @@
         <v>19</v>
       </c>
       <c r="E59">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
       </c>
       <c r="F59">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>220</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>910</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>410</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>303410</v>
@@ -3367,12 +3367,12 @@
         <v>19</v>
       </c>
       <c r="E60">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
       </c>
       <c r="F60">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>413</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>876</v>
       </c>
       <c r="G60" t="s">
         <v>9</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>415</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>303415</v>
@@ -3401,12 +3401,12 @@
         <v>19</v>
       </c>
       <c r="E61">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
       </c>
       <c r="F61">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>949</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>824</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>416</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>303416</v>
@@ -3435,12 +3435,12 @@
         <v>19</v>
       </c>
       <c r="E62">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
       </c>
       <c r="F62">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>313</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>140</v>
       </c>
       <c r="G62" t="s">
         <v>9</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>429</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>303429</v>
@@ -3469,12 +3469,12 @@
         <v>19</v>
       </c>
       <c r="E63">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
       </c>
       <c r="F63">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>910</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>810</v>
       </c>
       <c r="G63" t="s">
         <v>10</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>431</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>303431</v>
@@ -3503,12 +3503,12 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
       </c>
       <c r="F64">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>557</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>208</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>439</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>303439</v>
@@ -3537,12 +3537,12 @@
         <v>19</v>
       </c>
       <c r="E65">
-        <f ca="1">RANDBETWEEN(30,100)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="F65">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>168</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>658</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>303440</v>
@@ -3571,12 +3571,12 @@
         <v>19</v>
       </c>
       <c r="E66">
-        <f ca="1">RANDBETWEEN(30,100)</f>
+        <f t="shared" ref="E66:E97" ca="1" si="4">RANDBETWEEN(30,100)</f>
         <v>97</v>
       </c>
       <c r="F66">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>472</v>
+        <f t="shared" ref="F66:F97" ca="1" si="5">RANDBETWEEN(100,1000)</f>
+        <v>364</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>303036</v>
@@ -3605,12 +3605,12 @@
         <v>57</v>
       </c>
       <c r="E67">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
       </c>
       <c r="F67">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>778</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>322</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>303064</v>
@@ -3639,12 +3639,12 @@
         <v>57</v>
       </c>
       <c r="E68">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
       </c>
       <c r="F68">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>595</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>569</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>303569</v>
@@ -3673,12 +3673,12 @@
         <v>57</v>
       </c>
       <c r="E69">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
       </c>
       <c r="F69">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>418</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>856</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>583</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>303583</v>
@@ -3707,12 +3707,12 @@
         <v>57</v>
       </c>
       <c r="E70">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
       </c>
       <c r="F70">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>749</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>109</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>806</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>303806</v>
@@ -3741,12 +3741,12 @@
         <v>57</v>
       </c>
       <c r="E71">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
       </c>
       <c r="F71">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>644</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>241</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>303001</v>
@@ -3775,12 +3775,12 @@
         <v>16</v>
       </c>
       <c r="E72">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="F72">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>150</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>408</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>303002</v>
@@ -3809,12 +3809,12 @@
         <v>16</v>
       </c>
       <c r="E73">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
       </c>
       <c r="F73">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>267</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>884</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>303055</v>
@@ -3843,12 +3843,12 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
       </c>
       <c r="F74">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>154</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>920</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>303920</v>
@@ -3877,12 +3877,12 @@
         <v>16</v>
       </c>
       <c r="E75">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
       </c>
       <c r="F75">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>684</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>170</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>942</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>303942</v>
@@ -3911,12 +3911,12 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
       </c>
       <c r="F76">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>142</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>402</v>
       </c>
       <c r="G76" t="s">
         <v>9</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>944</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>303944</v>
@@ -3945,12 +3945,12 @@
         <v>16</v>
       </c>
       <c r="E77">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
       </c>
       <c r="F77">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>118</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>300</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>969</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>303969</v>
@@ -3979,12 +3979,12 @@
         <v>16</v>
       </c>
       <c r="E78">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
       </c>
       <c r="F78">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>144</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>570</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>981</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>303981</v>
@@ -4013,12 +4013,12 @@
         <v>16</v>
       </c>
       <c r="E79">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
       </c>
       <c r="F79">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>678</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>988</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>303988</v>
@@ -4047,12 +4047,12 @@
         <v>16</v>
       </c>
       <c r="E80">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
       </c>
       <c r="F80">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>681</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>535</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>997</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>303997</v>
@@ -4081,12 +4081,12 @@
         <v>16</v>
       </c>
       <c r="E81">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
       </c>
       <c r="F81">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>304</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>767</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>303006</v>
@@ -4115,12 +4115,12 @@
         <v>22</v>
       </c>
       <c r="E82">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="F82">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>616</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>269</v>
       </c>
       <c r="G82" t="s">
         <v>9</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>303322</v>
@@ -4149,12 +4149,12 @@
         <v>22</v>
       </c>
       <c r="E83">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
       </c>
       <c r="F83">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>791</v>
       </c>
       <c r="G83" t="s">
         <v>10</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>303448</v>
@@ -4183,12 +4183,12 @@
         <v>22</v>
       </c>
       <c r="E84">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
       </c>
       <c r="F84">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>184</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>336</v>
       </c>
       <c r="G84" t="s">
         <v>9</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>611</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>303611</v>
@@ -4217,12 +4217,12 @@
         <v>22</v>
       </c>
       <c r="E85">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
       </c>
       <c r="F85">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>709</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>907</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>675</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>303675</v>
@@ -4251,12 +4251,12 @@
         <v>22</v>
       </c>
       <c r="E86">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
       </c>
       <c r="F86">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>880</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>476</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>841</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>303841</v>
@@ -4285,12 +4285,12 @@
         <v>22</v>
       </c>
       <c r="E87">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
       </c>
       <c r="F87">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>823</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>190</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>303000</v>
@@ -4319,12 +4319,12 @@
         <v>13</v>
       </c>
       <c r="E88">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
       </c>
       <c r="F88">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>727</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>420</v>
       </c>
       <c r="G88" t="s">
         <v>9</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>303182</v>
@@ -4353,12 +4353,12 @@
         <v>13</v>
       </c>
       <c r="E89">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
       </c>
       <c r="F89">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>515</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>345</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>303148</v>
@@ -4387,12 +4387,12 @@
         <v>85</v>
       </c>
       <c r="E90">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
       </c>
       <c r="F90">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>376</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>695</v>
       </c>
       <c r="G90" t="s">
         <v>9</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>303167</v>
@@ -4421,12 +4421,12 @@
         <v>85</v>
       </c>
       <c r="E91">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
       <c r="F91">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>722</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>834</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>626</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>303626</v>
@@ -4455,12 +4455,12 @@
         <v>85</v>
       </c>
       <c r="E92">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="F92">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>465</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>397</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>726</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>303726</v>
@@ -4489,12 +4489,12 @@
         <v>147</v>
       </c>
       <c r="E93">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
       </c>
       <c r="F93">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>398</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>404</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>303180</v>
@@ -4523,12 +4523,12 @@
         <v>91</v>
       </c>
       <c r="E94">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
       </c>
       <c r="F94">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>991</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>879</v>
       </c>
       <c r="G94" t="s">
         <v>10</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>303249</v>
@@ -4557,12 +4557,12 @@
         <v>91</v>
       </c>
       <c r="E95">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
       </c>
       <c r="F95">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>707</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>748</v>
       </c>
       <c r="G95" t="s">
         <v>9</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>864</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>303864</v>
@@ -4591,12 +4591,12 @@
         <v>91</v>
       </c>
       <c r="E96">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
       </c>
       <c r="F96">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>176</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>967</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>965</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>303965</v>
@@ -4625,12 +4625,12 @@
         <v>91</v>
       </c>
       <c r="E97">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
       </c>
       <c r="F97">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>680</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>927</v>
       </c>
       <c r="G97" t="s">
         <v>9</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>968</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>303968</v>
@@ -4659,12 +4659,12 @@
         <v>91</v>
       </c>
       <c r="E98">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>40</v>
+        <f t="shared" ref="E98:E129" ca="1" si="6">RANDBETWEEN(30,100)</f>
+        <v>85</v>
       </c>
       <c r="F98">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>659</v>
+        <f t="shared" ref="F98:F129" ca="1" si="7">RANDBETWEEN(100,1000)</f>
+        <v>710</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>970</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>303970</v>
@@ -4693,12 +4693,12 @@
         <v>91</v>
       </c>
       <c r="E99">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>69</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
       </c>
       <c r="F99">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>189</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>939</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>983</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>303983</v>
@@ -4727,12 +4727,12 @@
         <v>91</v>
       </c>
       <c r="E100">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
       </c>
       <c r="F100">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>442</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>880</v>
       </c>
       <c r="G100" t="s">
         <v>10</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>303256</v>
@@ -4761,12 +4761,12 @@
         <v>91</v>
       </c>
       <c r="E101">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
       </c>
       <c r="F101">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>453</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>440</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>303300</v>
@@ -4795,12 +4795,12 @@
         <v>91</v>
       </c>
       <c r="E102">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>37</v>
       </c>
       <c r="F102">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>423</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>633</v>
       </c>
       <c r="G102" t="s">
         <v>9</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>539</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>303539</v>
@@ -4829,12 +4829,12 @@
         <v>91</v>
       </c>
       <c r="E103">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
       </c>
       <c r="F103">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>727</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>579</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>303104</v>
@@ -4863,12 +4863,12 @@
         <v>75</v>
       </c>
       <c r="E104">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
       </c>
       <c r="F104">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>412</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>579</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>303178</v>
@@ -4897,12 +4897,12 @@
         <v>75</v>
       </c>
       <c r="E105">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
       </c>
       <c r="F105">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>685</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>303267</v>
@@ -4931,12 +4931,12 @@
         <v>75</v>
       </c>
       <c r="E106">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
       </c>
       <c r="F106">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>296</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>214</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>303311</v>
@@ -4965,12 +4965,12 @@
         <v>75</v>
       </c>
       <c r="E107">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
       </c>
       <c r="F107">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>904</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>797</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>303331</v>
@@ -4999,12 +4999,12 @@
         <v>75</v>
       </c>
       <c r="E108">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
       </c>
       <c r="F108">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>967</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>112</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>493</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>303493</v>
@@ -5033,12 +5033,12 @@
         <v>75</v>
       </c>
       <c r="E109">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="F109">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>142</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>360</v>
       </c>
       <c r="G109" t="s">
         <v>9</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>630</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>303630</v>
@@ -5067,12 +5067,12 @@
         <v>75</v>
       </c>
       <c r="E110">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
       </c>
       <c r="F110">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>276</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>256</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>775</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>303775</v>
@@ -5101,12 +5101,12 @@
         <v>75</v>
       </c>
       <c r="E111">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
       </c>
       <c r="F111">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>518</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>679</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>985</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>303985</v>
@@ -5135,12 +5135,12 @@
         <v>75</v>
       </c>
       <c r="E112">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>35</v>
       </c>
       <c r="F112">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>794</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>531</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>303018</v>
@@ -5169,12 +5169,12 @@
         <v>38</v>
       </c>
       <c r="E113">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
       </c>
       <c r="F113">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>527</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>873</v>
       </c>
       <c r="G113" t="s">
         <v>9</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>303041</v>
@@ -5203,12 +5203,12 @@
         <v>38</v>
       </c>
       <c r="E114">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
       </c>
       <c r="F114">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>278</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>998</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>303304</v>
@@ -5237,12 +5237,12 @@
         <v>38</v>
       </c>
       <c r="E115">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31</v>
       </c>
       <c r="F115">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>997</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>393</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>339</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>303338</v>
@@ -5271,12 +5271,12 @@
         <v>38</v>
       </c>
       <c r="E116">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
       </c>
       <c r="F116">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>985</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>501</v>
       </c>
       <c r="G116" t="s">
         <v>10</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>303342</v>
@@ -5305,12 +5305,12 @@
         <v>38</v>
       </c>
       <c r="E117">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
       </c>
       <c r="F117">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>275</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>429</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>362</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>303361</v>
@@ -5339,12 +5339,12 @@
         <v>38</v>
       </c>
       <c r="E118">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
       </c>
       <c r="F118">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>156</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>390</v>
       </c>
       <c r="G118" t="s">
         <v>10</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>303373</v>
@@ -5373,12 +5373,12 @@
         <v>38</v>
       </c>
       <c r="E119">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
       </c>
       <c r="F119">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>586</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>993</v>
       </c>
       <c r="G119" t="s">
         <v>9</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>303384</v>
@@ -5407,12 +5407,12 @@
         <v>38</v>
       </c>
       <c r="E120">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33</v>
       </c>
       <c r="F120">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>496</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>714</v>
       </c>
       <c r="G120" t="s">
         <v>9</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>386</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>303386</v>
@@ -5441,12 +5441,12 @@
         <v>38</v>
       </c>
       <c r="E121">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
       </c>
       <c r="F121">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>164</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>930</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>426</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>303426</v>
@@ -5475,12 +5475,12 @@
         <v>38</v>
       </c>
       <c r="E122">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
       </c>
       <c r="F122">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>448</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>381</v>
       </c>
       <c r="G122" t="s">
         <v>10</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>303023</v>
@@ -5509,12 +5509,12 @@
         <v>45</v>
       </c>
       <c r="E123">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
       </c>
       <c r="F123">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>958</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>596</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>303070</v>
@@ -5543,12 +5543,12 @@
         <v>45</v>
       </c>
       <c r="E124">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
       </c>
       <c r="F124">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>888</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>878</v>
       </c>
       <c r="G124" t="s">
         <v>10</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>303327</v>
@@ -5577,12 +5577,12 @@
         <v>45</v>
       </c>
       <c r="E125">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
       </c>
       <c r="F125">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>316</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>881</v>
       </c>
       <c r="G125" t="s">
         <v>10</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>303425</v>
@@ -5611,12 +5611,12 @@
         <v>45</v>
       </c>
       <c r="E126">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
       </c>
       <c r="F126">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>349</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>792</v>
       </c>
       <c r="G126" t="s">
         <v>10</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>447</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>303447</v>
@@ -5645,12 +5645,12 @@
         <v>45</v>
       </c>
       <c r="E127">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
       </c>
       <c r="F127">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>939</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>426</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>463</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>303463</v>
@@ -5679,12 +5679,12 @@
         <v>45</v>
       </c>
       <c r="E128">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
       </c>
       <c r="F128">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>206</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>441</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>486</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>303486</v>
@@ -5713,12 +5713,12 @@
         <v>45</v>
       </c>
       <c r="E129">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
       </c>
       <c r="F129">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>526</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>856</v>
       </c>
       <c r="G129" t="s">
         <v>10</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>501</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>303501</v>
@@ -5747,12 +5747,12 @@
         <v>45</v>
       </c>
       <c r="E130">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>58</v>
+        <f t="shared" ref="E130:E161" ca="1" si="8">RANDBETWEEN(30,100)</f>
+        <v>38</v>
       </c>
       <c r="F130">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>660</v>
+        <f t="shared" ref="F130:F161" ca="1" si="9">RANDBETWEEN(100,1000)</f>
+        <v>128</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>303503</v>
@@ -5781,12 +5781,12 @@
         <v>45</v>
       </c>
       <c r="E131">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>81</v>
       </c>
       <c r="F131">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>188</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>506</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>520</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>303520</v>
@@ -5815,12 +5815,12 @@
         <v>45</v>
       </c>
       <c r="E132">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>68</v>
       </c>
       <c r="F132">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>430</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>632</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>303011</v>
@@ -5849,12 +5849,12 @@
         <v>28</v>
       </c>
       <c r="E133">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
       </c>
       <c r="F133">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>435</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>857</v>
       </c>
       <c r="G133" t="s">
         <v>9</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>303021</v>
@@ -5883,12 +5883,12 @@
         <v>28</v>
       </c>
       <c r="E134">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>99</v>
       </c>
       <c r="F134">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>523</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>430</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>303359</v>
@@ -5917,12 +5917,12 @@
         <v>28</v>
       </c>
       <c r="E135">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>59</v>
       </c>
       <c r="F135">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>384</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>483</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>367</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>303366</v>
@@ -5951,12 +5951,12 @@
         <v>28</v>
       </c>
       <c r="E136">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>87</v>
       </c>
       <c r="F136">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>886</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>626</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>472</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>303472</v>
@@ -5985,12 +5985,12 @@
         <v>28</v>
       </c>
       <c r="E137">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
       </c>
       <c r="F137">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>512</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>727</v>
       </c>
       <c r="G137" t="s">
         <v>9</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>496</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>303496</v>
@@ -6019,12 +6019,12 @@
         <v>28</v>
       </c>
       <c r="E138">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>61</v>
       </c>
       <c r="F138">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>743</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>705</v>
       </c>
       <c r="G138" t="s">
         <v>9</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>502</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>303502</v>
@@ -6053,12 +6053,12 @@
         <v>28</v>
       </c>
       <c r="E139">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>64</v>
       </c>
       <c r="F139">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>902</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>462</v>
       </c>
       <c r="G139" t="s">
         <v>9</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>513</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>303513</v>
@@ -6087,12 +6087,12 @@
         <v>28</v>
       </c>
       <c r="E140">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
       </c>
       <c r="F140">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>349</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>510</v>
       </c>
       <c r="G140" t="s">
         <v>10</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>541</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>303541</v>
@@ -6121,12 +6121,12 @@
         <v>28</v>
       </c>
       <c r="E141">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>69</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
       </c>
       <c r="F141">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>523</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>747</v>
       </c>
       <c r="G141" t="s">
         <v>9</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>570</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>303570</v>
@@ -6155,12 +6155,12 @@
         <v>28</v>
       </c>
       <c r="E142">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
       </c>
       <c r="F142">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>519</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>734</v>
       </c>
       <c r="G142" t="s">
         <v>9</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>533</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>303533</v>
@@ -6189,12 +6189,12 @@
         <v>135</v>
       </c>
       <c r="E143">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
       </c>
       <c r="F143">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>348</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>958</v>
       </c>
       <c r="G143" t="s">
         <v>9</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>993</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>303993</v>
@@ -6223,12 +6223,12 @@
         <v>135</v>
       </c>
       <c r="E144">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
       </c>
       <c r="F144">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>687</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>637</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>303014</v>
@@ -6257,12 +6257,12 @@
         <v>32</v>
       </c>
       <c r="E145">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
       </c>
       <c r="F145">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>684</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>402</v>
       </c>
       <c r="G145" t="s">
         <v>10</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>303016</v>
@@ -6291,12 +6291,12 @@
         <v>32</v>
       </c>
       <c r="E146">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
       </c>
       <c r="F146">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>917</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>336</v>
       </c>
       <c r="G146" t="s">
         <v>9</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>303111</v>
@@ -6325,12 +6325,12 @@
         <v>32</v>
       </c>
       <c r="E147">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
       </c>
       <c r="F147">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>741</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>293</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>303126</v>
@@ -6359,12 +6359,12 @@
         <v>32</v>
       </c>
       <c r="E148">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
       </c>
       <c r="F148">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>140</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>963</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>303133</v>
@@ -6393,12 +6393,12 @@
         <v>32</v>
       </c>
       <c r="E149">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
       </c>
       <c r="F149">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>545</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>538</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>303017</v>
@@ -6427,12 +6427,12 @@
         <v>36</v>
       </c>
       <c r="E150">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
       </c>
       <c r="F150">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>373</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>435</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>303144</v>
@@ -6461,12 +6461,12 @@
         <v>36</v>
       </c>
       <c r="E151">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
       </c>
       <c r="F151">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>546</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>831</v>
       </c>
       <c r="G151" t="s">
         <v>10</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>829</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>303829</v>
@@ -6495,12 +6495,12 @@
         <v>36</v>
       </c>
       <c r="E152">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
       </c>
       <c r="F152">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>753</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>350</v>
       </c>
       <c r="G152" t="s">
         <v>10</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>876</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>303876</v>
@@ -6529,12 +6529,12 @@
         <v>36</v>
       </c>
       <c r="E153">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
       </c>
       <c r="F153">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>441</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>577</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>958</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>303958</v>
@@ -6563,12 +6563,12 @@
         <v>36</v>
       </c>
       <c r="E154">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
       </c>
       <c r="F154">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>203</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>513</v>
       </c>
       <c r="G154" t="s">
         <v>10</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>959</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>303959</v>
@@ -6597,12 +6597,12 @@
         <v>36</v>
       </c>
       <c r="E155">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
       </c>
       <c r="F155">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>417</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>241</v>
       </c>
       <c r="G155" t="s">
         <v>10</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>303230</v>
@@ -6631,12 +6631,12 @@
         <v>36</v>
       </c>
       <c r="E156">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>78</v>
       </c>
       <c r="F156">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>509</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>648</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>303260</v>
@@ -6665,12 +6665,12 @@
         <v>36</v>
       </c>
       <c r="E157">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
       </c>
       <c r="F157">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>482</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>126</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>303282</v>
@@ -6699,12 +6699,12 @@
         <v>36</v>
       </c>
       <c r="E158">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
       </c>
       <c r="F158">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>488</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>820</v>
       </c>
       <c r="G158" t="s">
         <v>9</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>303022</v>
@@ -6733,12 +6733,12 @@
         <v>43</v>
       </c>
       <c r="E159">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
       </c>
       <c r="F159">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>641</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>763</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>303043</v>
@@ -6767,12 +6767,12 @@
         <v>43</v>
       </c>
       <c r="E160">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
       </c>
       <c r="F160">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>390</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>313</v>
       </c>
       <c r="G160" t="s">
         <v>10</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>303161</v>
@@ -6801,12 +6801,12 @@
         <v>43</v>
       </c>
       <c r="E161">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
       </c>
       <c r="F161">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>180</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>665</v>
       </c>
       <c r="G161" t="s">
         <v>10</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>303164</v>
@@ -6835,12 +6835,12 @@
         <v>43</v>
       </c>
       <c r="E162">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>95</v>
+        <f t="shared" ref="E162:E168" ca="1" si="10">RANDBETWEEN(30,100)</f>
+        <v>62</v>
       </c>
       <c r="F162">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>801</v>
+        <f t="shared" ref="F162:F168" ca="1" si="11">RANDBETWEEN(100,1000)</f>
+        <v>140</v>
       </c>
       <c r="G162" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>303175</v>
@@ -6869,12 +6869,12 @@
         <v>43</v>
       </c>
       <c r="E163">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>55</v>
       </c>
       <c r="F163">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>430</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>608</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>303192</v>
@@ -6903,12 +6903,12 @@
         <v>43</v>
       </c>
       <c r="E164">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
       </c>
       <c r="F164">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>286</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>103</v>
       </c>
       <c r="G164" t="s">
         <v>10</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>303205</v>
@@ -6937,12 +6937,12 @@
         <v>43</v>
       </c>
       <c r="E165">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>96</v>
       </c>
       <c r="F165">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>596</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>699</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>303228</v>
@@ -6971,12 +6971,12 @@
         <v>43</v>
       </c>
       <c r="E166">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>98</v>
       </c>
       <c r="F166">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>708</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>704</v>
       </c>
       <c r="G166" t="s">
         <v>9</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>303229</v>
@@ -7005,12 +7005,12 @@
         <v>43</v>
       </c>
       <c r="E167">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>76</v>
       </c>
       <c r="F167">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>515</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>294</v>
       </c>
       <c r="G167" t="s">
         <v>10</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>303234</v>
@@ -7039,12 +7039,12 @@
         <v>43</v>
       </c>
       <c r="E168">
-        <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
       </c>
       <c r="F168">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>604</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>506</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>

--- a/Dummy Data/Dim_Branch.xlsx
+++ b/Dummy Data/Dim_Branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COLLEGE\BITS PILANI\SS 2nd Semester\DW\DW Project\Loan-Data-Warehouse\Dummy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D76660-A04E-43DD-AB62-FC17AE5DF503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E421FE-F512-44FA-BF1B-097F216CBD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Branch Name</t>
   </si>
   <si>
-    <t>Branch Location</t>
-  </si>
-  <si>
     <t>Number of Employees</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>Chhatisgarh_04</t>
+  </si>
+  <si>
+    <t>Branch Pin Code</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1360,25 +1360,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,30 +1389,30 @@
         <v>303010</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(30,100)</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>875</v>
+        <v>447</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1423,30 +1423,30 @@
         <v>303026</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>686</v>
+        <v>528</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,30 +1457,30 @@
         <v>303183</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>623</v>
+        <v>991</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,30 +1491,30 @@
         <v>303190</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>615</v>
+        <v>832</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1525,30 +1525,30 @@
         <v>303215</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>567</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,30 +1559,30 @@
         <v>303597</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>751</v>
+        <v>902</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="s">
         <v>141</v>
       </c>
-      <c r="I7" t="s">
-        <v>142</v>
-      </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,30 +1593,30 @@
         <v>303027</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>590</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1627,30 +1627,30 @@
         <v>303037</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1661,30 +1661,30 @@
         <v>303096</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>683</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1695,30 +1695,30 @@
         <v>303105</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>962</v>
+        <v>478</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,30 +1729,30 @@
         <v>303112</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>782</v>
+        <v>830</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1763,30 +1763,30 @@
         <v>303015</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>941</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,30 +1797,30 @@
         <v>303031</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1831,30 +1831,30 @@
         <v>303231</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>792</v>
+        <v>921</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1865,30 +1865,30 @@
         <v>303237</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1899,30 +1899,30 @@
         <v>303244</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>735</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1933,30 +1933,30 @@
         <v>303020</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>325</v>
+        <v>890</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
         <v>39</v>
       </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1967,30 +1967,30 @@
         <v>303129</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>654</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2001,30 +2001,30 @@
         <v>303155</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2035,30 +2035,30 @@
         <v>303184</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>536</v>
+        <v>692</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2069,30 +2069,30 @@
         <v>303186</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2103,30 +2103,30 @@
         <v>303336</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>872</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
         <v>120</v>
       </c>
-      <c r="I23" t="s">
-        <v>121</v>
-      </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2137,30 +2137,30 @@
         <v>303269</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
         <v>108</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>109</v>
       </c>
-      <c r="I24" t="s">
-        <v>110</v>
-      </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2171,30 +2171,30 @@
         <v>303280</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>584</v>
+        <v>913</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2205,30 +2205,30 @@
         <v>303369</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>358</v>
+        <v>498</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2239,30 +2239,30 @@
         <v>303673</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>917</v>
+        <v>485</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2273,30 +2273,30 @@
         <v>303837</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2307,30 +2307,30 @@
         <v>303013</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>558</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
         <v>29</v>
       </c>
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,30 +2341,30 @@
         <v>303048</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>481</v>
+        <v>852</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2375,30 +2375,30 @@
         <v>303245</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2409,30 +2409,30 @@
         <v>303254</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2443,30 +2443,30 @@
         <v>303264</v>
       </c>
       <c r="C33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <v>804</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,30 +2477,30 @@
         <v>303281</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="2">RANDBETWEEN(30,100)</f>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F65" ca="1" si="3">RANDBETWEEN(100,1000)</f>
-        <v>569</v>
+        <v>386</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,30 +2511,30 @@
         <v>303290</v>
       </c>
       <c r="C35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2545,30 +2545,30 @@
         <v>303296</v>
       </c>
       <c r="C36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2579,30 +2579,30 @@
         <v>303362</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2613,30 +2613,30 @@
         <v>303376</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>724</v>
+        <v>666</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
         <v>29</v>
       </c>
-      <c r="I38" t="s">
-        <v>30</v>
-      </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2647,30 +2647,30 @@
         <v>303042</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
         <v>59</v>
       </c>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2681,30 +2681,30 @@
         <v>303589</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>464</v>
+        <v>705</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2715,30 +2715,30 @@
         <v>303009</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
         <v>23</v>
       </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
       <c r="J41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,30 +2749,30 @@
         <v>303029</v>
       </c>
       <c r="C42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>724</v>
+        <v>402</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2783,30 +2783,30 @@
         <v>303471</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2817,30 +2817,30 @@
         <v>303529</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2851,30 +2851,30 @@
         <v>303658</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2885,30 +2885,30 @@
         <v>303024</v>
       </c>
       <c r="C46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>670</v>
+        <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
         <v>46</v>
       </c>
-      <c r="I46" t="s">
-        <v>47</v>
-      </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2919,30 +2919,30 @@
         <v>303028</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>375</v>
+        <v>206</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,30 +2953,30 @@
         <v>303138</v>
       </c>
       <c r="C48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2987,30 +2987,30 @@
         <v>303156</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>167</v>
+        <v>655</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3021,30 +3021,30 @@
         <v>303277</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3055,30 +3055,30 @@
         <v>303292</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3089,30 +3089,30 @@
         <v>303293</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>653</v>
+        <v>428</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3123,30 +3123,30 @@
         <v>303324</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
-        <v>839</v>
+        <v>111</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3157,30 +3157,30 @@
         <v>303377</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
-        <v>459</v>
+        <v>778</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3191,30 +3191,30 @@
         <v>303413</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>659</v>
+        <v>557</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3225,30 +3225,30 @@
         <v>303003</v>
       </c>
       <c r="C56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>873</v>
+        <v>799</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
         <v>18</v>
       </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
       <c r="J56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3259,30 +3259,30 @@
         <v>303005</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>378</v>
+        <v>870</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3293,30 +3293,30 @@
         <v>303059</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
-        <v>866</v>
+        <v>937</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,30 +3327,30 @@
         <v>303408</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>910</v>
+        <v>702</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3361,30 +3361,30 @@
         <v>303410</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>876</v>
+        <v>493</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3395,30 +3395,30 @@
         <v>303415</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>824</v>
+        <v>272</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3429,30 +3429,30 @@
         <v>303416</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>698</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3463,30 +3463,30 @@
         <v>303429</v>
       </c>
       <c r="C63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
-        <v>810</v>
+        <v>934</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3497,30 +3497,30 @@
         <v>303431</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>714</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3531,30 +3531,30 @@
         <v>303439</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>658</v>
+        <v>421</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3565,30 +3565,30 @@
         <v>303440</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E97" ca="1" si="4">RANDBETWEEN(30,100)</f>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F97" ca="1" si="5">RANDBETWEEN(100,1000)</f>
-        <v>364</v>
+        <v>559</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
         <v>18</v>
       </c>
-      <c r="I66" t="s">
-        <v>19</v>
-      </c>
       <c r="J66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,30 +3599,30 @@
         <v>303036</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" t="s">
         <v>56</v>
       </c>
-      <c r="I67" t="s">
-        <v>57</v>
-      </c>
       <c r="J67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3633,30 +3633,30 @@
         <v>303064</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3667,30 +3667,30 @@
         <v>303569</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3701,30 +3701,30 @@
         <v>303583</v>
       </c>
       <c r="C70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" t="s">
         <v>56</v>
       </c>
-      <c r="I70" t="s">
-        <v>57</v>
-      </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3735,30 +3735,30 @@
         <v>303806</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3769,30 +3769,30 @@
         <v>303001</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
         <v>15</v>
       </c>
-      <c r="I72" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3803,30 +3803,30 @@
         <v>303002</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>884</v>
+        <v>604</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,30 +3837,30 @@
         <v>303055</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>178</v>
+        <v>830</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3871,30 +3871,30 @@
         <v>303920</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>170</v>
+        <v>713</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3905,30 +3905,30 @@
         <v>303942</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3939,30 +3939,30 @@
         <v>303944</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>300</v>
+        <v>538</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3973,30 +3973,30 @@
         <v>303969</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4007,30 +4007,30 @@
         <v>303981</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>859</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4041,30 +4041,30 @@
         <v>303988</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>535</v>
+        <v>687</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4075,10 +4075,10 @@
         <v>303997</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
@@ -4086,19 +4086,19 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4109,30 +4109,30 @@
         <v>303006</v>
       </c>
       <c r="C82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
         <v>21</v>
       </c>
-      <c r="I82" t="s">
-        <v>22</v>
-      </c>
       <c r="J82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4143,30 +4143,30 @@
         <v>303322</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
-        <v>791</v>
+        <v>397</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
         <v>21</v>
       </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
       <c r="J83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4177,30 +4177,30 @@
         <v>303448</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
-        <v>336</v>
+        <v>622</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4211,30 +4211,30 @@
         <v>303611</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="5"/>
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4245,30 +4245,30 @@
         <v>303675</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
-        <v>476</v>
+        <v>592</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
         <v>21</v>
       </c>
-      <c r="I86" t="s">
-        <v>22</v>
-      </c>
       <c r="J86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4279,30 +4279,30 @@
         <v>303841</v>
       </c>
       <c r="C87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
         <v>21</v>
       </c>
-      <c r="I87" t="s">
-        <v>22</v>
-      </c>
       <c r="J87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4313,30 +4313,30 @@
         <v>303000</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
-        <v>420</v>
+        <v>175</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
         <v>12</v>
       </c>
-      <c r="I88" t="s">
-        <v>13</v>
-      </c>
       <c r="J88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4347,30 +4347,30 @@
         <v>303182</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="5"/>
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4381,30 +4381,30 @@
         <v>303148</v>
       </c>
       <c r="C90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="5"/>
-        <v>695</v>
+        <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90" t="s">
         <v>84</v>
       </c>
-      <c r="I90" t="s">
-        <v>85</v>
-      </c>
       <c r="J90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4415,30 +4415,30 @@
         <v>303167</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="5"/>
-        <v>834</v>
+        <v>633</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4449,30 +4449,30 @@
         <v>303626</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="5"/>
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4483,30 +4483,30 @@
         <v>303726</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>404</v>
+        <v>910</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" t="s">
+        <v>145</v>
+      </c>
+      <c r="I93" t="s">
         <v>146</v>
       </c>
-      <c r="I93" t="s">
-        <v>147</v>
-      </c>
       <c r="J93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4517,30 +4517,30 @@
         <v>303180</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="5"/>
-        <v>879</v>
+        <v>652</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H94" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" t="s">
         <v>90</v>
       </c>
-      <c r="I94" t="s">
-        <v>91</v>
-      </c>
       <c r="J94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4551,30 +4551,30 @@
         <v>303249</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="5"/>
-        <v>748</v>
+        <v>311</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4585,30 +4585,30 @@
         <v>303864</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="5"/>
-        <v>967</v>
+        <v>532</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4619,30 +4619,30 @@
         <v>303965</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>927</v>
+        <v>290</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" t="s">
         <v>90</v>
       </c>
-      <c r="I97" t="s">
-        <v>91</v>
-      </c>
       <c r="J97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4653,30 +4653,30 @@
         <v>303968</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:E129" ca="1" si="6">RANDBETWEEN(30,100)</f>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F98">
         <f t="shared" ref="F98:F129" ca="1" si="7">RANDBETWEEN(100,1000)</f>
-        <v>710</v>
+        <v>141</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4687,30 +4687,30 @@
         <v>303970</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>939</v>
+        <v>882</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4721,30 +4721,30 @@
         <v>303983</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>880</v>
+        <v>135</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H100" t="s">
+        <v>89</v>
+      </c>
+      <c r="I100" t="s">
         <v>90</v>
       </c>
-      <c r="I100" t="s">
-        <v>91</v>
-      </c>
       <c r="J100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4755,30 +4755,30 @@
         <v>303256</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>440</v>
+        <v>766</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4789,30 +4789,30 @@
         <v>303300</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="7"/>
-        <v>633</v>
+        <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4823,30 +4823,30 @@
         <v>303539</v>
       </c>
       <c r="C103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="7"/>
-        <v>579</v>
+        <v>799</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4857,30 +4857,30 @@
         <v>303104</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="7"/>
-        <v>579</v>
+        <v>273</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104" t="s">
         <v>74</v>
       </c>
-      <c r="I104" t="s">
-        <v>75</v>
-      </c>
       <c r="J104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4891,30 +4891,30 @@
         <v>303178</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="7"/>
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4925,30 +4925,30 @@
         <v>303267</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="7"/>
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4959,30 +4959,30 @@
         <v>303311</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="7"/>
-        <v>797</v>
+        <v>702</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4993,30 +4993,30 @@
         <v>303331</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="7"/>
-        <v>112</v>
+        <v>782</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108" t="s">
         <v>74</v>
       </c>
-      <c r="I108" t="s">
-        <v>75</v>
-      </c>
       <c r="J108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5027,30 +5027,30 @@
         <v>303493</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="7"/>
-        <v>360</v>
+        <v>966</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5061,10 +5061,10 @@
         <v>303630</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="6"/>
@@ -5072,19 +5072,19 @@
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="7"/>
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5095,30 +5095,30 @@
         <v>303775</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="7"/>
-        <v>679</v>
+        <v>421</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111" t="s">
         <v>74</v>
       </c>
-      <c r="I111" t="s">
-        <v>75</v>
-      </c>
       <c r="J111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5129,30 +5129,30 @@
         <v>303985</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="7"/>
-        <v>531</v>
+        <v>866</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5163,30 +5163,30 @@
         <v>303018</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="7"/>
-        <v>873</v>
+        <v>603</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I113" t="s">
         <v>37</v>
       </c>
-      <c r="I113" t="s">
-        <v>38</v>
-      </c>
       <c r="J113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5197,30 +5197,30 @@
         <v>303041</v>
       </c>
       <c r="C114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="7"/>
-        <v>998</v>
+        <v>846</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H114" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5231,30 +5231,30 @@
         <v>303304</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="7"/>
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5265,30 +5265,30 @@
         <v>303338</v>
       </c>
       <c r="C116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="7"/>
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5299,30 +5299,30 @@
         <v>303342</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="7"/>
-        <v>429</v>
+        <v>797</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5333,30 +5333,30 @@
         <v>303361</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="7"/>
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5367,30 +5367,30 @@
         <v>303373</v>
       </c>
       <c r="C119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="7"/>
-        <v>993</v>
+        <v>944</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5401,30 +5401,30 @@
         <v>303384</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="7"/>
-        <v>714</v>
+        <v>941</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5435,30 +5435,30 @@
         <v>303386</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="7"/>
-        <v>930</v>
+        <v>667</v>
       </c>
       <c r="G121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5469,30 +5469,30 @@
         <v>303426</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="7"/>
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5503,30 +5503,30 @@
         <v>303023</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="7"/>
-        <v>596</v>
+        <v>288</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" t="s">
         <v>44</v>
       </c>
-      <c r="I123" t="s">
-        <v>45</v>
-      </c>
       <c r="J123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5537,30 +5537,30 @@
         <v>303070</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="7"/>
-        <v>878</v>
+        <v>573</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5571,30 +5571,30 @@
         <v>303327</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="7"/>
-        <v>881</v>
+        <v>946</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5605,30 +5605,30 @@
         <v>303425</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="7"/>
-        <v>792</v>
+        <v>378</v>
       </c>
       <c r="G126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5639,30 +5639,30 @@
         <v>303447</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="7"/>
-        <v>426</v>
+        <v>258</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5673,30 +5673,30 @@
         <v>303463</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="7"/>
-        <v>441</v>
+        <v>652</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5707,30 +5707,30 @@
         <v>303486</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="7"/>
-        <v>856</v>
+        <v>246</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5741,30 +5741,30 @@
         <v>303501</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E130">
         <f t="shared" ref="E130:E161" ca="1" si="8">RANDBETWEEN(30,100)</f>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F130">
         <f t="shared" ref="F130:F161" ca="1" si="9">RANDBETWEEN(100,1000)</f>
-        <v>128</v>
+        <v>404</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5775,30 +5775,30 @@
         <v>303503</v>
       </c>
       <c r="C131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="9"/>
-        <v>506</v>
+        <v>794</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5809,30 +5809,30 @@
         <v>303520</v>
       </c>
       <c r="C132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="9"/>
-        <v>632</v>
+        <v>359</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5843,30 +5843,30 @@
         <v>303011</v>
       </c>
       <c r="C133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="9"/>
-        <v>857</v>
+        <v>524</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" t="s">
         <v>27</v>
       </c>
-      <c r="I133" t="s">
-        <v>28</v>
-      </c>
       <c r="J133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5877,30 +5877,30 @@
         <v>303021</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="9"/>
-        <v>430</v>
+        <v>854</v>
       </c>
       <c r="G134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5911,30 +5911,30 @@
         <v>303359</v>
       </c>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="9"/>
-        <v>483</v>
+        <v>191</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5945,30 +5945,30 @@
         <v>303366</v>
       </c>
       <c r="C136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="9"/>
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="G136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5979,30 +5979,30 @@
         <v>303472</v>
       </c>
       <c r="C137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="9"/>
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -6013,30 +6013,30 @@
         <v>303496</v>
       </c>
       <c r="C138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="9"/>
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -6047,30 +6047,30 @@
         <v>303502</v>
       </c>
       <c r="C139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="9"/>
-        <v>462</v>
+        <v>235</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -6081,30 +6081,30 @@
         <v>303513</v>
       </c>
       <c r="C140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="9"/>
-        <v>510</v>
+        <v>667</v>
       </c>
       <c r="G140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -6115,30 +6115,30 @@
         <v>303541</v>
       </c>
       <c r="C141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="9"/>
-        <v>747</v>
+        <v>894</v>
       </c>
       <c r="G141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -6149,30 +6149,30 @@
         <v>303570</v>
       </c>
       <c r="C142" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="9"/>
-        <v>734</v>
+        <v>382</v>
       </c>
       <c r="G142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -6183,30 +6183,30 @@
         <v>303533</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="9"/>
-        <v>958</v>
+        <v>182</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H143" t="s">
+        <v>133</v>
+      </c>
+      <c r="I143" t="s">
         <v>134</v>
       </c>
-      <c r="I143" t="s">
-        <v>135</v>
-      </c>
       <c r="J143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -6217,30 +6217,30 @@
         <v>303993</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="9"/>
-        <v>637</v>
+        <v>745</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6251,30 +6251,30 @@
         <v>303014</v>
       </c>
       <c r="C145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="9"/>
-        <v>402</v>
+        <v>144</v>
       </c>
       <c r="G145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H145" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s">
         <v>31</v>
       </c>
-      <c r="I145" t="s">
-        <v>32</v>
-      </c>
       <c r="J145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -6285,30 +6285,30 @@
         <v>303016</v>
       </c>
       <c r="C146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="9"/>
-        <v>336</v>
+        <v>862</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H146" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s">
         <v>31</v>
       </c>
-      <c r="I146" t="s">
-        <v>32</v>
-      </c>
       <c r="J146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -6319,30 +6319,30 @@
         <v>303111</v>
       </c>
       <c r="C147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="9"/>
-        <v>293</v>
+        <v>863</v>
       </c>
       <c r="G147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -6353,30 +6353,30 @@
         <v>303126</v>
       </c>
       <c r="C148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="9"/>
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -6387,30 +6387,30 @@
         <v>303133</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="9"/>
-        <v>538</v>
+        <v>968</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -6421,30 +6421,30 @@
         <v>303017</v>
       </c>
       <c r="C150" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="9"/>
-        <v>435</v>
+        <v>966</v>
       </c>
       <c r="G150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H150" t="s">
+        <v>34</v>
+      </c>
+      <c r="I150" t="s">
         <v>35</v>
       </c>
-      <c r="I150" t="s">
-        <v>36</v>
-      </c>
       <c r="J150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -6455,30 +6455,30 @@
         <v>303144</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="9"/>
-        <v>831</v>
+        <v>247</v>
       </c>
       <c r="G151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -6489,30 +6489,30 @@
         <v>303829</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="9"/>
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -6523,30 +6523,30 @@
         <v>303876</v>
       </c>
       <c r="C153" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="9"/>
-        <v>577</v>
+        <v>117</v>
       </c>
       <c r="G153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -6557,30 +6557,30 @@
         <v>303958</v>
       </c>
       <c r="C154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="9"/>
-        <v>513</v>
+        <v>810</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -6591,30 +6591,30 @@
         <v>303959</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="9"/>
-        <v>241</v>
+        <v>996</v>
       </c>
       <c r="G155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -6625,30 +6625,30 @@
         <v>303230</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="9"/>
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -6659,30 +6659,30 @@
         <v>303260</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="9"/>
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -6693,30 +6693,30 @@
         <v>303282</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="9"/>
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="G158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H158" t="s">
+        <v>34</v>
+      </c>
+      <c r="I158" t="s">
         <v>35</v>
       </c>
-      <c r="I158" t="s">
-        <v>36</v>
-      </c>
       <c r="J158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6727,30 +6727,30 @@
         <v>303022</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="9"/>
-        <v>763</v>
+        <v>356</v>
       </c>
       <c r="G159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H159" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" t="s">
         <v>42</v>
       </c>
-      <c r="I159" t="s">
-        <v>43</v>
-      </c>
       <c r="J159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6761,30 +6761,30 @@
         <v>303043</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="9"/>
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="G160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -6795,30 +6795,30 @@
         <v>303161</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="9"/>
-        <v>665</v>
+        <v>395</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H161" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -6829,30 +6829,30 @@
         <v>303164</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E162">
         <f t="shared" ref="E162:E168" ca="1" si="10">RANDBETWEEN(30,100)</f>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F162">
         <f t="shared" ref="F162:F168" ca="1" si="11">RANDBETWEEN(100,1000)</f>
-        <v>140</v>
+        <v>681</v>
       </c>
       <c r="G162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H162" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6863,30 +6863,30 @@
         <v>303175</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="11"/>
-        <v>608</v>
+        <v>971</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6897,30 +6897,30 @@
         <v>303192</v>
       </c>
       <c r="C164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="11"/>
-        <v>103</v>
+        <v>827</v>
       </c>
       <c r="G164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H164" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6931,30 +6931,30 @@
         <v>303205</v>
       </c>
       <c r="C165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="11"/>
-        <v>699</v>
+        <v>569</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6965,30 +6965,30 @@
         <v>303228</v>
       </c>
       <c r="C166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="11"/>
-        <v>704</v>
+        <v>142</v>
       </c>
       <c r="G166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H166" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6999,30 +6999,30 @@
         <v>303229</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="11"/>
-        <v>294</v>
+        <v>477</v>
       </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H167" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -7033,30 +7033,30 @@
         <v>303234</v>
       </c>
       <c r="C168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="11"/>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="G168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Dummy Data/Dim_Branch.xlsx
+++ b/Dummy Data/Dim_Branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem2\Data Warehousing\assigment\Loan-Data-Warehouse\Dummy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC41D6F-4B4D-4F5C-89D1-0BEB093B9EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22804BF-1665-4FEC-A825-157C4B16B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>Branch Name</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>_Source Key</t>
+  </si>
+  <si>
+    <t>Lineage Key</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:L168"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +590,8 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -620,6 +625,9 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -652,9 +660,12 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L33" si="0">"INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;",'"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303010,'ASIFABAD','564567',51,'501-10,000','Rural','Jowai','Meghalaya','India');</v>
+        <f>"INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;",'"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"',"&amp;K2&amp;");"</f>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303010,'ASIFABAD','564567',51,'501-10,000','Rural','Jowai','Meghalaya','India',2);</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -688,9 +699,12 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303026,'BOATH','675675',38,'501-10,000','Rural','Arvi','Maharashtra','India');</v>
+        <f t="shared" ref="L3:L21" si="0">"INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;",'"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"',"&amp;K3&amp;");"</f>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303026,'BOATH','675675',38,'501-10,000','Rural','Arvi','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -724,9 +738,12 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303183,'CHINNOR','400016',97,'501-10,000','Rural','Mumbai','Maharashtra','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303183,'CHINNOR','400016',97,'501-10,000','Rural','Mumbai','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -760,9 +777,12 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303190,'KHANAPUR','673639',45,'501-10,000','Corporate','Kozhikode','Kerala','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303190,'KHANAPUR','673639',45,'501-10,000','Corporate','Kozhikode','Kerala','India',2);</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -796,9 +816,12 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303215,'LUXETTIPET','411006',66,'501-10,000','Personal','Pune','Maharashtra','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303215,'LUXETTIPET','411006',66,'501-10,000','Personal','Pune','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -832,9 +855,12 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303597,'MUDHOL AP','679103',43,'501-10,000','Corporate','Ottappalam','Kerala','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303597,'MUDHOL AP','679103',43,'501-10,000','Corporate','Ottappalam','Kerala','India',2);</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -868,9 +894,12 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303027,'SIRPUR TOWN','765756',93,'501-10,000','Rural','Kakching','Manipur','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303027,'SIRPUR TOWN','765756',93,'501-10,000','Rural','Kakching','Manipur','India',2);</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -904,9 +933,12 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303037,'UTNOOR','400093',64,'501-10,000','Personal','Mumbai','Maharashtra','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303037,'UTNOOR','400093',64,'501-10,000','Personal','Mumbai','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -940,9 +972,12 @@
       <c r="J10" t="s">
         <v>12</v>
       </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303096,'MAIN BR','400093',42,'501-10,000','Corporate','Mumbai','Maharashtra','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303096,'MAIN BR','400093',42,'501-10,000','Corporate','Mumbai','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -976,9 +1011,12 @@
       <c r="J11" t="s">
         <v>12</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303105,'JAGTIAL','646467',52,'501-10,000','Personal','Deoghar','Jharkhand','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303105,'JAGTIAL','646467',52,'501-10,000','Personal','Deoghar','Jharkhand','India',2);</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1012,9 +1050,12 @@
       <c r="J12" t="s">
         <v>12</v>
       </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303112,'JAMMIKUNTA','400088',73,'501-10,000','Personal','Adoni','Andhra Pradesh','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303112,'JAMMIKUNTA','400088',73,'501-10,000','Personal','Adoni','Andhra Pradesh','India',2);</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1048,9 +1089,12 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303015,'KORATLA','503217',44,'501-10,000','Rural','Abhayapuri','Telangana','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303015,'KORATLA','503217',44,'501-10,000','Rural','Abhayapuri','Telangana','India',2);</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1084,9 +1128,12 @@
       <c r="J14" t="s">
         <v>12</v>
       </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303031,'PEDDAPALLI','441904',37,'501-10,000','Personal','Bhandara','Maharashtra','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303031,'PEDDAPALLI','441904',37,'501-10,000','Personal','Bhandara','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1120,9 +1167,12 @@
       <c r="J15" t="s">
         <v>12</v>
       </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303231,'RAMAGUNDEM','121002',42,'501-10,000','Rural','Faridabad','Haryana','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303231,'RAMAGUNDEM','121002',42,'501-10,000','Rural','Faridabad','Haryana','India',2);</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1156,9 +1206,12 @@
       <c r="J16" t="s">
         <v>12</v>
       </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303237,'SIRCILLA','272155',70,'501-10,000','Personal','Gorakhpur','Uttar Pradesh','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303237,'SIRCILLA','272155',70,'501-10,000','Personal','Gorakhpur','Uttar Pradesh','India',2);</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1192,9 +1245,12 @@
       <c r="J17" t="s">
         <v>12</v>
       </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303244,'DHARMAPURI','844102',39,'501-10,000','Personal','Hajipur','Bihar','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303244,'DHARMAPURI','844102',39,'501-10,000','Personal','Hajipur','Bihar','India',2);</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1228,9 +1284,12 @@
       <c r="J18" t="s">
         <v>12</v>
       </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303020,'GANGADHARA','272301',40,'0-500','Personal','Gorakhpur','Uttar Pradesh','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303020,'GANGADHARA','272301',40,'0-500','Personal','Gorakhpur','Uttar Pradesh','India',2);</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1264,9 +1323,12 @@
       <c r="J19" t="s">
         <v>12</v>
       </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303129,'HUZURABAD','263139',37,'501-10,000','Personal','Haldwani','Uttarakhand','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303129,'HUZURABAD','263139',37,'501-10,000','Personal','Haldwani','Uttarakhand','India',2);</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1300,9 +1362,12 @@
       <c r="J20" t="s">
         <v>12</v>
       </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303155,'MANTHANI','332701',91,'501-10,000','Rural','Sikar','Rajasthan','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303155,'MANTHANI','332701',91,'501-10,000','Rural','Sikar','Rajasthan','India',2);</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1336,9 +1401,12 @@
       <c r="J21" t="s">
         <v>12</v>
       </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country]) VALUES (303184,'METPALLY','414603',100,'501-10,000','Rural','Ahmednagar','Maharashtra','India');</v>
+        <v>INSERT into [dbo].[Dim_Branch] ([_Source Key], [Branch Name], [Branch PINCODE], [Number of Employees], [Number of Customers], [Branch Type], [City], [State], [Country], [Lineage Key]) VALUES (303184,'METPALLY','414603',100,'501-10,000','Rural','Ahmednagar','Maharashtra','India',2);</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
